--- a/docs/attack-excel-files/v18.1/mobile-attack/mobile-attack-v18.1-groups.xlsx
+++ b/docs/attack-excel-files/v18.1/mobile-attack/mobile-attack-v18.1-groups.xlsx
@@ -543,7 +543,7 @@
     <t>Denise Tan</t>
   </si>
   <si>
-    <t>(Citation: fb_arid_viper),(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),(Citation: sentinelone_israel_hamas_war),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),(Citation: welivesecurity_apt-c-23),</t>
+    <t>(Citation: checkpoint_hamas_android_malware),(Citation: fb_arid_viper),(Citation: welivesecurity_apt-c-23),(Citation: sentinelone_israel_hamas_war),(Citation: sophos_android_apt_spyware),(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),</t>
   </si>
   <si>
     <t>(Citation: CrowdStrike-Android),,</t>
@@ -567,7 +567,7 @@
     <t>,,</t>
   </si>
   <si>
-    <t>,(Citation: Krebs LAPUSS Mar2022),(Citation: Microsoft DEV-0537 Mar2022),</t>
+    <t>,(Citation: Microsoft DEV-0537 Mar2022),(Citation: Krebs LAPUSS Mar2022),</t>
   </si>
   <si>
     <t>,(Citation: MoustachedBouncer ESET August 2023),</t>
@@ -579,10 +579,10 @@
     <t>,,(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020)</t>
   </si>
   <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: Leonard TAG 2023),(Citation: GTIG_SignalAbuse_Feb2025),</t>
-  </si>
-  <si>
-    <t>,(Citation: Mandiant UNC3944 May 2025),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: CrowdStrike Scattered Spider JUL 2025),(Citation: Check Point Scattered Spider JUL 2025),(Citation: Mphasis SS_SIM_Swap Apr2024),</t>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: GTIG_SignalAbuse_Feb2025),(Citation: Leonard TAG 2023),</t>
+  </si>
+  <si>
+    <t>,(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: CrowdStrike Scattered Spider JUL 2025),(Citation: Mandiant UNC3944 May 2025),(Citation: Mphasis SS_SIM_Swap Apr2024),(Citation: Check Point Scattered Spider JUL 2025),</t>
   </si>
   <si>
     <t>,(Citation: MSTI_StarBlizzard_Jan2025),</t>

--- a/docs/attack-excel-files/v18.1/mobile-attack/mobile-attack-v18.1-groups.xlsx
+++ b/docs/attack-excel-files/v18.1/mobile-attack/mobile-attack-v18.1-groups.xlsx
@@ -543,7 +543,7 @@
     <t>Denise Tan</t>
   </si>
   <si>
-    <t>(Citation: checkpoint_hamas_android_malware),(Citation: fb_arid_viper),(Citation: welivesecurity_apt-c-23),(Citation: sentinelone_israel_hamas_war),(Citation: sophos_android_apt_spyware),(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),</t>
+    <t>(Citation: welivesecurity_apt-c-23),(Citation: sentinelone_israel_hamas_war),(Citation: sophos_android_apt_spyware),(Citation: fb_arid_viper),(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),</t>
   </si>
   <si>
     <t>(Citation: CrowdStrike-Android),,</t>
@@ -567,7 +567,7 @@
     <t>,,</t>
   </si>
   <si>
-    <t>,(Citation: Microsoft DEV-0537 Mar2022),(Citation: Krebs LAPUSS Mar2022),</t>
+    <t>,(Citation: Krebs LAPUSS Mar2022),(Citation: Microsoft DEV-0537 Mar2022),</t>
   </si>
   <si>
     <t>,(Citation: MoustachedBouncer ESET August 2023),</t>
@@ -579,10 +579,10 @@
     <t>,,(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020)</t>
   </si>
   <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: GTIG_SignalAbuse_Feb2025),(Citation: Leonard TAG 2023),</t>
-  </si>
-  <si>
-    <t>,(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: CrowdStrike Scattered Spider JUL 2025),(Citation: Mandiant UNC3944 May 2025),(Citation: Mphasis SS_SIM_Swap Apr2024),(Citation: Check Point Scattered Spider JUL 2025),</t>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Leonard TAG 2023),(Citation: GTIG_SignalAbuse_Feb2025),(Citation: mandiant_apt44_unearthing_sandworm),</t>
+  </si>
+  <si>
+    <t>,(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: CrowdStrike Scattered Spider JUL 2025),(Citation: Mphasis SS_SIM_Swap Apr2024),(Citation: Check Point Scattered Spider JUL 2025),(Citation: Mandiant UNC3944 May 2025),</t>
   </si>
   <si>
     <t>,(Citation: MSTI_StarBlizzard_Jan2025),</t>
@@ -591,7 +591,7 @@
     <t>(Citation: Meta Adversarial Threat Report 2022),(Citation: Meta Adversarial Threat Report 2022),</t>
   </si>
   <si>
-    <t>,(Citation: Cyfirma Bahamut),(Citation: BlackBerry Bahamut),</t>
+    <t>,(Citation: BlackBerry Bahamut),(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
     <t>source ID</t>
@@ -2320,16 +2320,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2352,7 +2344,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2360,35 +2352,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2691,43 +2665,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2744,7 +2718,7 @@
       <c r="D2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F2" t="s">
@@ -2785,7 +2759,7 @@
       <c r="D3" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F3" t="s">
@@ -2826,7 +2800,7 @@
       <c r="D4" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F4" t="s">
@@ -2867,7 +2841,7 @@
       <c r="D5" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F5" t="s">
@@ -2905,7 +2879,7 @@
       <c r="D6" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F6" t="s">
@@ -2937,7 +2911,7 @@
       <c r="D7" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F7" t="s">
@@ -2972,7 +2946,7 @@
       <c r="D8" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F8" t="s">
@@ -3004,7 +2978,7 @@
       <c r="D9" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F9" t="s">
@@ -3042,7 +3016,7 @@
       <c r="D10" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F10" t="s">
@@ -3083,7 +3057,7 @@
       <c r="D11" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F11" t="s">
@@ -3115,7 +3089,7 @@
       <c r="D12" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F12" t="s">
@@ -3156,7 +3130,7 @@
       <c r="D13" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F13" t="s">
@@ -3194,7 +3168,7 @@
       <c r="D14" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F14" t="s">
@@ -3235,7 +3209,7 @@
       <c r="D15" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F15" t="s">
@@ -3273,7 +3247,7 @@
       <c r="D16" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F16" t="s">
@@ -3314,7 +3288,7 @@
       <c r="D17" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F17" t="s">
@@ -3349,7 +3323,7 @@
       <c r="D18" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F18" t="s">
@@ -3407,43 +3381,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>194</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>195</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>196</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>197</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>198</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4029,43 +4003,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>194</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>195</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>196</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>197</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>198</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5354,43 +5328,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>194</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>195</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>196</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>197</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>198</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5449,13 +5423,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>426</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>427</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5466,7 +5440,7 @@
       <c r="B2" t="s">
         <v>541</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>654</v>
       </c>
     </row>
@@ -5477,7 +5451,7 @@
       <c r="B3" t="s">
         <v>542</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>655</v>
       </c>
     </row>
@@ -5488,7 +5462,7 @@
       <c r="B4" t="s">
         <v>543</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>656</v>
       </c>
     </row>
@@ -5499,7 +5473,7 @@
       <c r="B5" t="s">
         <v>544</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>657</v>
       </c>
     </row>
@@ -5510,7 +5484,7 @@
       <c r="B6" t="s">
         <v>545</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>658</v>
       </c>
     </row>
@@ -5521,7 +5495,7 @@
       <c r="B7" t="s">
         <v>546</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>659</v>
       </c>
     </row>
@@ -5532,7 +5506,7 @@
       <c r="B8" t="s">
         <v>547</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>660</v>
       </c>
     </row>
@@ -5543,7 +5517,7 @@
       <c r="B9" t="s">
         <v>548</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>661</v>
       </c>
     </row>
@@ -5554,7 +5528,7 @@
       <c r="B10" t="s">
         <v>549</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>662</v>
       </c>
     </row>
@@ -5565,7 +5539,7 @@
       <c r="B11" t="s">
         <v>550</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>663</v>
       </c>
     </row>
@@ -5576,7 +5550,7 @@
       <c r="B12" t="s">
         <v>551</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>664</v>
       </c>
     </row>
@@ -5587,7 +5561,7 @@
       <c r="B13" t="s">
         <v>552</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>665</v>
       </c>
     </row>
@@ -5598,7 +5572,7 @@
       <c r="B14" t="s">
         <v>553</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>666</v>
       </c>
     </row>
@@ -5609,7 +5583,7 @@
       <c r="B15" t="s">
         <v>554</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>667</v>
       </c>
     </row>
@@ -5620,7 +5594,7 @@
       <c r="B16" t="s">
         <v>555</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>668</v>
       </c>
     </row>
@@ -5631,7 +5605,7 @@
       <c r="B17" t="s">
         <v>556</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -5642,7 +5616,7 @@
       <c r="B18" t="s">
         <v>557</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>670</v>
       </c>
     </row>
@@ -5653,7 +5627,7 @@
       <c r="B19" t="s">
         <v>558</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>671</v>
       </c>
     </row>
@@ -5664,7 +5638,7 @@
       <c r="B20" t="s">
         <v>559</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>672</v>
       </c>
     </row>
@@ -5675,7 +5649,7 @@
       <c r="B21" t="s">
         <v>560</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>673</v>
       </c>
     </row>
@@ -5686,7 +5660,7 @@
       <c r="B22" t="s">
         <v>561</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>674</v>
       </c>
     </row>
@@ -5697,7 +5671,7 @@
       <c r="B23" t="s">
         <v>562</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>675</v>
       </c>
     </row>
@@ -5708,7 +5682,7 @@
       <c r="B24" t="s">
         <v>563</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>676</v>
       </c>
     </row>
@@ -5719,7 +5693,7 @@
       <c r="B25" t="s">
         <v>564</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>677</v>
       </c>
     </row>
@@ -5730,7 +5704,7 @@
       <c r="B26" t="s">
         <v>565</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>678</v>
       </c>
     </row>
@@ -5741,7 +5715,7 @@
       <c r="B27" t="s">
         <v>566</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>679</v>
       </c>
     </row>
@@ -5752,7 +5726,7 @@
       <c r="B28" t="s">
         <v>567</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>680</v>
       </c>
     </row>
@@ -5763,7 +5737,7 @@
       <c r="B29" t="s">
         <v>568</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>681</v>
       </c>
     </row>
@@ -5774,7 +5748,7 @@
       <c r="B30" t="s">
         <v>569</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>682</v>
       </c>
     </row>
@@ -5785,7 +5759,7 @@
       <c r="B31" t="s">
         <v>570</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>683</v>
       </c>
     </row>
@@ -5796,7 +5770,7 @@
       <c r="B32" t="s">
         <v>562</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>675</v>
       </c>
     </row>
@@ -5807,7 +5781,7 @@
       <c r="B33" t="s">
         <v>571</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>684</v>
       </c>
     </row>
@@ -5818,7 +5792,7 @@
       <c r="B34" t="s">
         <v>572</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>685</v>
       </c>
     </row>
@@ -5829,7 +5803,7 @@
       <c r="B35" t="s">
         <v>573</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>686</v>
       </c>
     </row>
@@ -5840,7 +5814,7 @@
       <c r="B36" t="s">
         <v>574</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>687</v>
       </c>
     </row>
@@ -5851,7 +5825,7 @@
       <c r="B37" t="s">
         <v>575</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>688</v>
       </c>
     </row>
@@ -5862,7 +5836,7 @@
       <c r="B38" t="s">
         <v>576</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>689</v>
       </c>
     </row>
@@ -5873,7 +5847,7 @@
       <c r="B39" t="s">
         <v>577</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>690</v>
       </c>
     </row>
@@ -5884,7 +5858,7 @@
       <c r="B40" t="s">
         <v>555</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>668</v>
       </c>
     </row>
@@ -5895,7 +5869,7 @@
       <c r="B41" t="s">
         <v>578</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>691</v>
       </c>
     </row>
@@ -5906,7 +5880,7 @@
       <c r="B42" t="s">
         <v>553</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>666</v>
       </c>
     </row>
@@ -5917,7 +5891,7 @@
       <c r="B43" t="s">
         <v>579</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>692</v>
       </c>
     </row>
@@ -5928,7 +5902,7 @@
       <c r="B44" t="s">
         <v>565</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>678</v>
       </c>
     </row>
@@ -5939,7 +5913,7 @@
       <c r="B45" t="s">
         <v>568</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>681</v>
       </c>
     </row>
@@ -5950,7 +5924,7 @@
       <c r="B46" t="s">
         <v>580</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>693</v>
       </c>
     </row>
@@ -5961,7 +5935,7 @@
       <c r="B47" t="s">
         <v>570</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>683</v>
       </c>
     </row>
@@ -5972,7 +5946,7 @@
       <c r="B48" t="s">
         <v>581</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>694</v>
       </c>
     </row>
@@ -5983,7 +5957,7 @@
       <c r="B49" t="s">
         <v>551</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>664</v>
       </c>
     </row>
@@ -5994,7 +5968,7 @@
       <c r="B50" t="s">
         <v>550</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>663</v>
       </c>
     </row>
@@ -6005,7 +5979,7 @@
       <c r="B51" t="s">
         <v>582</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>695</v>
       </c>
     </row>
@@ -6016,7 +5990,7 @@
       <c r="B52" t="s">
         <v>583</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>696</v>
       </c>
     </row>
@@ -6027,7 +6001,7 @@
       <c r="B53" t="s">
         <v>584</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>697</v>
       </c>
     </row>
@@ -6038,7 +6012,7 @@
       <c r="B54" t="s">
         <v>585</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>698</v>
       </c>
     </row>
@@ -6049,7 +6023,7 @@
       <c r="B55" t="s">
         <v>586</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>699</v>
       </c>
     </row>
@@ -6060,7 +6034,7 @@
       <c r="B56" t="s">
         <v>587</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>700</v>
       </c>
     </row>
@@ -6071,7 +6045,7 @@
       <c r="B57" t="s">
         <v>588</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>701</v>
       </c>
     </row>
@@ -6082,7 +6056,7 @@
       <c r="B58" t="s">
         <v>589</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>702</v>
       </c>
     </row>
@@ -6093,7 +6067,7 @@
       <c r="B59" t="s">
         <v>590</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>703</v>
       </c>
     </row>
@@ -6104,7 +6078,7 @@
       <c r="B60" t="s">
         <v>567</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>680</v>
       </c>
     </row>
@@ -6115,7 +6089,7 @@
       <c r="B61" t="s">
         <v>591</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>704</v>
       </c>
     </row>
@@ -6126,7 +6100,7 @@
       <c r="B62" t="s">
         <v>592</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>705</v>
       </c>
     </row>
@@ -6137,7 +6111,7 @@
       <c r="B63" t="s">
         <v>593</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>706</v>
       </c>
     </row>
@@ -6148,7 +6122,7 @@
       <c r="B64" t="s">
         <v>594</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>707</v>
       </c>
     </row>
@@ -6159,7 +6133,7 @@
       <c r="B65" t="s">
         <v>595</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>708</v>
       </c>
     </row>
@@ -6170,7 +6144,7 @@
       <c r="B66" t="s">
         <v>596</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>709</v>
       </c>
     </row>
@@ -6181,7 +6155,7 @@
       <c r="B67" t="s">
         <v>597</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>710</v>
       </c>
     </row>
@@ -6192,7 +6166,7 @@
       <c r="B68" t="s">
         <v>598</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>711</v>
       </c>
     </row>
@@ -6203,7 +6177,7 @@
       <c r="B69" t="s">
         <v>599</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>712</v>
       </c>
     </row>
@@ -6214,7 +6188,7 @@
       <c r="B70" t="s">
         <v>600</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>713</v>
       </c>
     </row>
@@ -6225,7 +6199,7 @@
       <c r="B71" t="s">
         <v>601</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>714</v>
       </c>
     </row>
@@ -6236,7 +6210,7 @@
       <c r="B72" t="s">
         <v>602</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>715</v>
       </c>
     </row>
@@ -6247,7 +6221,7 @@
       <c r="B73" t="s">
         <v>603</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>716</v>
       </c>
     </row>
@@ -6258,7 +6232,7 @@
       <c r="B74" t="s">
         <v>604</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>717</v>
       </c>
     </row>
@@ -6269,7 +6243,7 @@
       <c r="B75" t="s">
         <v>605</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>718</v>
       </c>
     </row>
@@ -6280,7 +6254,7 @@
       <c r="B76" t="s">
         <v>606</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>719</v>
       </c>
     </row>
@@ -6291,7 +6265,7 @@
       <c r="B77" t="s">
         <v>607</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>720</v>
       </c>
     </row>
@@ -6302,7 +6276,7 @@
       <c r="B78" t="s">
         <v>608</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>721</v>
       </c>
     </row>
@@ -6313,7 +6287,7 @@
       <c r="B79" t="s">
         <v>609</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>722</v>
       </c>
     </row>
@@ -6324,7 +6298,7 @@
       <c r="B80" t="s">
         <v>610</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>723</v>
       </c>
     </row>
@@ -6335,7 +6309,7 @@
       <c r="B81" t="s">
         <v>611</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>724</v>
       </c>
     </row>
@@ -6346,7 +6320,7 @@
       <c r="B82" t="s">
         <v>612</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>725</v>
       </c>
     </row>
@@ -6357,7 +6331,7 @@
       <c r="B83" t="s">
         <v>613</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>726</v>
       </c>
     </row>
@@ -6368,7 +6342,7 @@
       <c r="B84" t="s">
         <v>614</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>727</v>
       </c>
     </row>
@@ -6379,7 +6353,7 @@
       <c r="B85" t="s">
         <v>615</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>728</v>
       </c>
     </row>
@@ -6390,7 +6364,7 @@
       <c r="B86" t="s">
         <v>616</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>729</v>
       </c>
     </row>
@@ -6401,7 +6375,7 @@
       <c r="B87" t="s">
         <v>617</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>730</v>
       </c>
     </row>
@@ -6428,7 +6402,7 @@
       <c r="B90" t="s">
         <v>620</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>731</v>
       </c>
     </row>
@@ -6439,7 +6413,7 @@
       <c r="B91" t="s">
         <v>621</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>732</v>
       </c>
     </row>
@@ -6450,7 +6424,7 @@
       <c r="B92" t="s">
         <v>622</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>733</v>
       </c>
     </row>
@@ -6461,7 +6435,7 @@
       <c r="B93" t="s">
         <v>623</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>734</v>
       </c>
     </row>
@@ -6472,7 +6446,7 @@
       <c r="B94" t="s">
         <v>624</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>735</v>
       </c>
     </row>
@@ -6483,7 +6457,7 @@
       <c r="B95" t="s">
         <v>625</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>736</v>
       </c>
     </row>
@@ -6494,7 +6468,7 @@
       <c r="B96" t="s">
         <v>626</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>737</v>
       </c>
     </row>
@@ -6505,7 +6479,7 @@
       <c r="B97" t="s">
         <v>627</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>737</v>
       </c>
     </row>
@@ -6516,7 +6490,7 @@
       <c r="B98" t="s">
         <v>628</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>737</v>
       </c>
     </row>
@@ -6527,7 +6501,7 @@
       <c r="B99" t="s">
         <v>629</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>738</v>
       </c>
     </row>
@@ -6538,7 +6512,7 @@
       <c r="B100" t="s">
         <v>630</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>739</v>
       </c>
     </row>
@@ -6549,7 +6523,7 @@
       <c r="B101" t="s">
         <v>631</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>740</v>
       </c>
     </row>
@@ -6560,7 +6534,7 @@
       <c r="B102" t="s">
         <v>632</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="1" t="s">
         <v>741</v>
       </c>
     </row>
@@ -6571,7 +6545,7 @@
       <c r="B103" t="s">
         <v>633</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="1" t="s">
         <v>742</v>
       </c>
     </row>
@@ -6582,7 +6556,7 @@
       <c r="B104" t="s">
         <v>634</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="1" t="s">
         <v>743</v>
       </c>
     </row>
@@ -6593,7 +6567,7 @@
       <c r="B105" t="s">
         <v>635</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="1" t="s">
         <v>744</v>
       </c>
     </row>
@@ -6604,7 +6578,7 @@
       <c r="B106" t="s">
         <v>636</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>745</v>
       </c>
     </row>
@@ -6615,7 +6589,7 @@
       <c r="B107" t="s">
         <v>557</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="1" t="s">
         <v>670</v>
       </c>
     </row>
@@ -6626,7 +6600,7 @@
       <c r="B108" t="s">
         <v>559</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="1" t="s">
         <v>672</v>
       </c>
     </row>
@@ -6637,7 +6611,7 @@
       <c r="B109" t="s">
         <v>637</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>746</v>
       </c>
     </row>
@@ -6648,7 +6622,7 @@
       <c r="B110" t="s">
         <v>638</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="1" t="s">
         <v>747</v>
       </c>
     </row>
@@ -6659,7 +6633,7 @@
       <c r="B111" t="s">
         <v>639</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="1" t="s">
         <v>748</v>
       </c>
     </row>
@@ -6670,7 +6644,7 @@
       <c r="B112" t="s">
         <v>640</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="1" t="s">
         <v>749</v>
       </c>
     </row>
@@ -6681,7 +6655,7 @@
       <c r="B113" t="s">
         <v>641</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="1" t="s">
         <v>750</v>
       </c>
     </row>
@@ -6692,7 +6666,7 @@
       <c r="B114" t="s">
         <v>642</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="1" t="s">
         <v>751</v>
       </c>
     </row>
@@ -6703,7 +6677,7 @@
       <c r="B115" t="s">
         <v>643</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="1" t="s">
         <v>752</v>
       </c>
     </row>
@@ -6714,7 +6688,7 @@
       <c r="B116" t="s">
         <v>644</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="1" t="s">
         <v>753</v>
       </c>
     </row>
@@ -6725,7 +6699,7 @@
       <c r="B117" t="s">
         <v>645</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="1" t="s">
         <v>754</v>
       </c>
     </row>
@@ -6736,7 +6710,7 @@
       <c r="B118" t="s">
         <v>646</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="1" t="s">
         <v>755</v>
       </c>
     </row>
@@ -6747,7 +6721,7 @@
       <c r="B119" t="s">
         <v>647</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="1" t="s">
         <v>756</v>
       </c>
     </row>
@@ -6758,7 +6732,7 @@
       <c r="B120" t="s">
         <v>648</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="1" t="s">
         <v>757</v>
       </c>
     </row>
@@ -6769,7 +6743,7 @@
       <c r="B121" t="s">
         <v>649</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="1" t="s">
         <v>758</v>
       </c>
     </row>
@@ -6780,7 +6754,7 @@
       <c r="B122" t="s">
         <v>650</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="1" t="s">
         <v>759</v>
       </c>
     </row>
@@ -6791,7 +6765,7 @@
       <c r="B123" t="s">
         <v>651</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="1" t="s">
         <v>760</v>
       </c>
     </row>
@@ -6802,7 +6776,7 @@
       <c r="B124" t="s">
         <v>652</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="1" t="s">
         <v>761</v>
       </c>
     </row>
@@ -6813,7 +6787,7 @@
       <c r="B125" t="s">
         <v>561</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="1" t="s">
         <v>674</v>
       </c>
     </row>
@@ -6824,7 +6798,7 @@
       <c r="B126" t="s">
         <v>653</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="1" t="s">
         <v>762</v>
       </c>
     </row>
@@ -6843,7 +6817,7 @@
       <c r="B128" t="s">
         <v>541</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="1" t="s">
         <v>654</v>
       </c>
     </row>
